--- a/Modelos/Tentativa 1/Resultados.xlsx
+++ b/Modelos/Tentativa 1/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Tentativa 1\Novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3525038-DF22-4B43-B6E9-9E72188F34B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0930BC4-EF89-47AC-B6F5-B205DE049829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,12 +415,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -446,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>35.665531158447273</v>
+        <v>35.047336578369141</v>
       </c>
       <c r="C2" s="2">
-        <v>0.58563965559005737</v>
+        <v>0.58176892995834351</v>
       </c>
       <c r="D2" s="2">
-        <v>32.989154815673828</v>
+        <v>38.902687072753913</v>
       </c>
       <c r="E2" s="2">
-        <v>0.66201549768447876</v>
+        <v>0.55813956260681152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>14.562045097351071</v>
+        <v>14.32170391082764</v>
       </c>
       <c r="C3" s="2">
-        <v>0.75866073369979858</v>
+        <v>0.77007937431335449</v>
       </c>
       <c r="D3" s="2">
-        <v>26.783229827880859</v>
+        <v>35.072418212890618</v>
       </c>
       <c r="E3" s="2">
-        <v>0.75813955068588257</v>
+        <v>0.76434105634689331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>7.926609992980957</v>
+        <v>8.3757028579711914</v>
       </c>
       <c r="C4" s="2">
-        <v>0.83336555957794189</v>
+        <v>0.84459066390991211</v>
       </c>
       <c r="D4" s="2">
-        <v>42.320014953613281</v>
+        <v>43.242725372314453</v>
       </c>
       <c r="E4" s="2">
-        <v>0.73488372564315796</v>
+        <v>0.73333334922790527</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>9.4388999938964844</v>
+        <v>9.8779144287109375</v>
       </c>
       <c r="C5" s="2">
-        <v>0.8267853856086731</v>
+        <v>0.84923553466796875</v>
       </c>
       <c r="D5" s="2">
-        <v>52.767688751220703</v>
+        <v>46.410869598388672</v>
       </c>
       <c r="E5" s="2">
-        <v>0.70542633533477783</v>
+        <v>0.70387595891952515</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -514,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>8.0154552459716797</v>
+        <v>5.1427288055419922</v>
       </c>
       <c r="C6" s="2">
-        <v>0.86336368322372437</v>
+        <v>0.88484615087509155</v>
       </c>
       <c r="D6" s="2">
-        <v>37.272773742675781</v>
+        <v>32.800773620605469</v>
       </c>
       <c r="E6" s="2">
-        <v>0.75503873825073242</v>
+        <v>0.77054262161254883</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -531,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>5.0075225830078116</v>
+        <v>3.9072921276092529</v>
       </c>
       <c r="C7" s="2">
-        <v>0.89858716726303101</v>
+        <v>0.90478032827377319</v>
       </c>
       <c r="D7" s="2">
-        <v>31.316179275512699</v>
+        <v>31.36110687255859</v>
       </c>
       <c r="E7" s="2">
-        <v>0.75038760900497437</v>
+        <v>0.77209299802780151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -548,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1.6956608295440669</v>
+        <v>2.645338773727417</v>
       </c>
       <c r="C8" s="2">
-        <v>0.94968068599700928</v>
+        <v>0.93013352155685425</v>
       </c>
       <c r="D8" s="2">
-        <v>28.72017860412598</v>
+        <v>33.510272979736328</v>
       </c>
       <c r="E8" s="2">
-        <v>0.77054262161254883</v>
+        <v>0.70697677135467529</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,16 +565,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.39098766446113592</v>
+        <v>1.3677771091461179</v>
       </c>
       <c r="C9" s="2">
-        <v>0.98703306913375854</v>
+        <v>0.9554867148399353</v>
       </c>
       <c r="D9" s="2">
-        <v>25.053501129150391</v>
+        <v>26.729923248291019</v>
       </c>
       <c r="E9" s="2">
-        <v>0.77054262161254883</v>
+        <v>0.76279067993164063</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -582,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.13643081486225131</v>
+        <v>0.25709623098373408</v>
       </c>
       <c r="C10" s="2">
-        <v>0.99187147617340088</v>
+        <v>0.9883878231048584</v>
       </c>
       <c r="D10" s="2">
-        <v>24.339839935302731</v>
+        <v>25.192203521728519</v>
       </c>
       <c r="E10" s="2">
-        <v>0.75503873825073242</v>
+        <v>0.77364343404769897</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -599,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1055986285209656</v>
+        <v>0.14662432670593259</v>
       </c>
       <c r="C11" s="2">
-        <v>0.99341976642608643</v>
+        <v>0.99206501245498657</v>
       </c>
       <c r="D11" s="2">
-        <v>25.403530120849609</v>
+        <v>24.626619338989261</v>
       </c>
       <c r="E11" s="2">
-        <v>0.75968992710113525</v>
+        <v>0.75658917427062988</v>
       </c>
     </row>
   </sheetData>
